--- a/www/ig/fhir/tddui/StructureDefinition-tddui-organization.xlsx
+++ b/www/ig/fhir/tddui/StructureDefinition-tddui-organization.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0</t>
+    <t>2.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-24T14:57:40+00:00</t>
+    <t>2025-12-08T14:37:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
